--- a/Check2/Lista de Materiais (Check2).xlsx
+++ b/Check2/Lista de Materiais (Check2).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Material</t>
   </si>
@@ -111,13 +111,19 @@
   </si>
   <si>
     <t>20m</t>
+  </si>
+  <si>
+    <t>Lista de Materiais</t>
+  </si>
+  <si>
+    <t>Preço Aproximado (R$)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +153,22 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -306,8 +328,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -367,7 +393,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H2" sqref="H2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,18 +685,28 @@
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,8 +719,20 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -693,8 +745,20 @@
       <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
@@ -707,8 +771,20 @@
       <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -721,8 +797,20 @@
       <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>50</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -736,7 +824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -750,7 +838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -764,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -778,7 +866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
@@ -792,7 +880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
@@ -806,7 +894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -820,7 +908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
@@ -834,7 +922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -848,7 +936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -872,8 +960,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
